--- a/VocabularioBaseEstab.xlsx
+++ b/VocabularioBaseEstab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgemansilla/IGs/_MINSAL-MFR-Inst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F28C4C81-0191-7A49-A265-818C320409FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5C17BA-9577-944E-85A6-D643EFF66A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18000" yWindow="880" windowWidth="18000" windowHeight="22500" tabRatio="601" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EstadoFuncionamiento" sheetId="60" r:id="rId1"/>
@@ -631,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -707,6 +707,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1013,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC90F57-2ADE-495A-9E38-D26C19291E4D}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B9"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1077,7 +1078,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="27">
         <v>6</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -1086,6 +1087,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1093,7 +1095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C69CBF-FE1D-4383-8ECF-5C6CC6076B4F}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="A4:B16"/>
     </sheetView>
   </sheetViews>
@@ -1223,6 +1225,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1660,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31EE447-A0A6-4CAB-8DD7-7E6E263575B0}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1733,6 +1736,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
